--- a/week-8/8-2-A-building-excel-dashboards/study-time.xlsx
+++ b/week-8/8-2-A-building-excel-dashboards/study-time.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Subject</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>Label</t>
+  </si>
+  <si>
+    <t>data source:</t>
+  </si>
+  <si>
+    <t>fabricated :)</t>
   </si>
 </sst>
 </file>
@@ -465,7 +471,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A8FD11D4-5D5D-43C6-9F92-EE35020B7EBD}" type="CELLRANGE">
+                    <a:fld id="{5B1E26B9-7A27-49AF-9E33-B5E14ECD42FE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -500,7 +506,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9180C7CA-21F4-49A8-B81F-D94FC96D9825}" type="CELLRANGE">
+                    <a:fld id="{C0C48F6B-BC31-4E60-B98B-CF94FCE846E3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -535,7 +541,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DCA0137E-9F46-4AD2-974B-2187792ECE58}" type="CELLRANGE">
+                    <a:fld id="{87C0EDF2-22C5-4BE3-8E47-E9CB62E50A9E}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -570,7 +576,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{548370F5-EDA6-4D3B-AE82-B47639424C6E}" type="CELLRANGE">
+                    <a:fld id="{35ED5E3B-EF35-4043-87A5-F09795C32575}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -605,7 +611,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE42C81F-70D3-4600-819F-748C6D37EE17}" type="CELLRANGE">
+                    <a:fld id="{D011EA5F-C5DE-4D02-9463-C8EE7D653BEA}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1757,23 +1763,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1783,7 +1800,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
